--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756183</v>
+        <v>111756201</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454846.1011266113</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R2" t="n">
-        <v>7077989.429598056</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756197</v>
+        <v>111756228</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,38 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454714.0498325597</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R3" t="n">
-        <v>7078245.674788637</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756229</v>
+        <v>111756185</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,34 +929,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454666.5179796169</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R4" t="n">
-        <v>7078046.330693659</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,6 +1003,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756189</v>
+        <v>111756206</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454863.8846402104</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R5" t="n">
-        <v>7078180.817308126</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756177</v>
+        <v>111756188</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1167,38 +1167,46 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454813.3235469044</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R6" t="n">
-        <v>7078139.154034943</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,10 +1275,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756226</v>
+        <v>111756230</v>
       </c>
       <c r="B7" t="n">
-        <v>57196</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,46 +1291,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206004</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454740.9983539577</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R7" t="n">
-        <v>7078152.117474856</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1391,7 +1387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756193</v>
+        <v>111756187</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1435,10 +1431,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454850.1642388465</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R8" t="n">
-        <v>7078395.164246398</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1485,7 +1481,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1512,7 +1508,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756195</v>
+        <v>111756199</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1556,10 +1552,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454751.5781831384</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R9" t="n">
-        <v>7078426.16528051</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1633,7 +1629,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756192</v>
+        <v>111756186</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1677,10 +1673,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454878.1680680924</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R10" t="n">
-        <v>7078374.892904288</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,7 +1723,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1754,10 +1750,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756184</v>
+        <v>111756229</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1770,38 +1766,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454862.3754597838</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R11" t="n">
-        <v>7077983.455089819</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1844,11 +1836,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,7 +1862,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756196</v>
+        <v>111756198</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1919,10 +1906,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454782.5072116339</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R12" t="n">
-        <v>7078363.463980651</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,7 +1956,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +1983,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756185</v>
+        <v>111756207</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2040,10 +2027,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454848.6625738188</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R13" t="n">
-        <v>7078044.590774203</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2117,10 +2104,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756228</v>
+        <v>111756200</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2133,34 +2120,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454637.5582637019</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R14" t="n">
-        <v>7078061.762426405</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2203,6 +2194,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2229,7 +2225,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756200</v>
+        <v>111756183</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2273,10 +2269,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454728.385483562</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R15" t="n">
-        <v>7078135.961247524</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2323,7 +2319,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2350,7 +2346,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756205</v>
+        <v>111756189</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2394,10 +2390,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454661.172505763</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R16" t="n">
-        <v>7078074.227291723</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2444,7 +2440,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2471,7 +2467,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756202</v>
+        <v>111756193</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2515,10 +2511,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454711.3900985403</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R17" t="n">
-        <v>7078122.517579651</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2565,7 +2561,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2592,7 +2588,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756206</v>
+        <v>111756205</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2636,10 +2632,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454681.0324187803</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R18" t="n">
-        <v>7078010.353051431</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2713,10 +2709,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756191</v>
+        <v>111756226</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2729,38 +2725,46 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454859.4192073204</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R19" t="n">
-        <v>7078362.357776939</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2803,11 +2807,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2834,10 +2833,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756187</v>
+        <v>111756227</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2850,38 +2849,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454822.2972313846</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R20" t="n">
-        <v>7078056.009293623</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2924,11 +2919,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2955,7 +2945,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756188</v>
+        <v>111756197</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2991,11 +2981,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3003,10 +2989,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454822.976552347</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R21" t="n">
-        <v>7078103.248077305</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3049,6 +3035,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3075,7 +3066,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756186</v>
+        <v>111756196</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3119,10 +3110,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454834.3282248892</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R22" t="n">
-        <v>7078062.459975488</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3169,7 +3160,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3196,7 +3187,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756208</v>
+        <v>111756182</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3240,10 +3231,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454738.9854336191</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R23" t="n">
-        <v>7077858.933359061</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3317,7 +3308,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756182</v>
+        <v>111756202</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3361,10 +3352,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454754.976727221</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R24" t="n">
-        <v>7077925.384909356</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3438,10 +3429,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756227</v>
+        <v>111756203</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3454,34 +3445,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454748.496803251</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R25" t="n">
-        <v>7078427.092723752</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3524,6 +3519,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3550,7 +3550,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756201</v>
+        <v>111756184</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454721.3380567667</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R26" t="n">
-        <v>7078137.829085928</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756194</v>
+        <v>111756195</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454833.8349476284</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R27" t="n">
-        <v>7078397.165123029</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756203</v>
+        <v>111756194</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454724.7693715093</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R28" t="n">
-        <v>7078099.804593277</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756190</v>
+        <v>111756177</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3925,42 +3925,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454855.4410001434</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R29" t="n">
-        <v>7078362.414948186</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4003,11 +3999,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4034,10 +4025,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756230</v>
+        <v>111756192</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4050,34 +4041,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454689.8802392048</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R30" t="n">
-        <v>7078010.667017381</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4120,6 +4115,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4146,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756198</v>
+        <v>111756190</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454720.9697492528</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R31" t="n">
-        <v>7078234.97776112</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4267,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756207</v>
+        <v>111756191</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454689.3044494091</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R32" t="n">
-        <v>7078001.40201206</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756199</v>
+        <v>111756208</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454714.5457055964</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R33" t="n">
-        <v>7078218.732823553</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756201</v>
+        <v>111756195</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454721.3380567667</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R2" t="n">
-        <v>7078137.829085928</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756228</v>
+        <v>111756208</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +817,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454637.5582637019</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R3" t="n">
-        <v>7078061.762426405</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,6 +891,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756185</v>
+        <v>111756190</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454848.6625738188</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R4" t="n">
-        <v>7078044.590774203</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756206</v>
+        <v>111756177</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,42 +1055,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454681.0324187803</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R5" t="n">
-        <v>7078010.353051431</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,11 +1129,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756188</v>
+        <v>111756183</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1191,11 +1191,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1203,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454822.976552347</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R6" t="n">
-        <v>7078103.248077305</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,6 +1245,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1275,10 +1276,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756230</v>
+        <v>111756197</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1291,34 +1292,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454689.8802392048</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R7" t="n">
-        <v>7078010.667017381</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,6 +1366,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1508,7 +1518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756199</v>
+        <v>111756186</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1552,10 +1562,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454714.5457055964</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R9" t="n">
-        <v>7078218.732823553</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1602,7 +1612,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1629,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756186</v>
+        <v>111756229</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1645,38 +1655,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454834.3282248892</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R10" t="n">
-        <v>7078062.459975488</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1719,11 +1725,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1750,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756229</v>
+        <v>111756202</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1766,34 +1767,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454666.5179796169</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R11" t="n">
-        <v>7078046.330693659</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,6 +1841,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1862,7 +1872,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756198</v>
+        <v>111756201</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1906,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454720.9697492528</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R12" t="n">
-        <v>7078234.97776112</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1983,10 +1993,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756207</v>
+        <v>111756226</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1999,38 +2009,46 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454689.3044494091</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R13" t="n">
-        <v>7078001.40201206</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,11 +2091,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2104,7 +2117,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756200</v>
+        <v>111756182</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2148,10 +2161,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454728.385483562</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R14" t="n">
-        <v>7078135.961247524</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2225,7 +2238,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756183</v>
+        <v>111756189</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2269,10 +2282,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454846.1011266113</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R15" t="n">
-        <v>7077989.429598056</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2346,7 +2359,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756189</v>
+        <v>111756196</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2390,10 +2403,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454863.8846402104</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R16" t="n">
-        <v>7078180.817308126</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2440,7 +2453,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2467,7 +2480,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756193</v>
+        <v>111756206</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2511,10 +2524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454850.1642388465</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R17" t="n">
-        <v>7078395.164246398</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2561,7 +2574,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2588,7 +2601,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756205</v>
+        <v>111756191</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2632,10 +2645,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454661.172505763</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R18" t="n">
-        <v>7078074.227291723</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2682,7 +2695,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2709,10 +2722,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756226</v>
+        <v>111756188</v>
       </c>
       <c r="B19" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2725,46 +2738,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454740.9983539577</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R19" t="n">
-        <v>7078152.117474856</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2833,10 +2842,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756227</v>
+        <v>111756200</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2849,34 +2858,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454748.496803251</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R20" t="n">
-        <v>7078427.092723752</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2919,6 +2932,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2945,7 +2963,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756197</v>
+        <v>111756193</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2989,10 +3007,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454714.0498325597</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R21" t="n">
-        <v>7078245.674788637</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3066,10 +3084,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756196</v>
+        <v>111756228</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3082,38 +3100,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454782.5072116339</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R22" t="n">
-        <v>7078363.463980651</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3156,11 +3170,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3187,7 +3196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756182</v>
+        <v>111756207</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3231,10 +3240,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454754.976727221</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R23" t="n">
-        <v>7077925.384909356</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3308,7 +3317,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756202</v>
+        <v>111756192</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3352,10 +3361,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454711.3900985403</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R24" t="n">
-        <v>7078122.517579651</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3550,10 +3559,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756184</v>
+        <v>111756230</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3566,38 +3575,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454862.3754597838</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R26" t="n">
-        <v>7077983.455089819</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3640,11 +3645,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3671,7 +3671,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756195</v>
+        <v>111756194</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454751.5781831384</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R27" t="n">
-        <v>7078426.16528051</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756194</v>
+        <v>111756199</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454833.8349476284</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R28" t="n">
-        <v>7078397.165123029</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756177</v>
+        <v>111756205</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3925,38 +3925,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454813.3235469044</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R29" t="n">
-        <v>7078139.154034943</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3999,6 +4003,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4025,7 +4034,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756192</v>
+        <v>111756184</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4069,10 +4078,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454878.1680680924</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R30" t="n">
-        <v>7078374.892904288</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4146,7 +4155,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756190</v>
+        <v>111756198</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4199,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454855.4410001434</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R31" t="n">
-        <v>7078362.414948186</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4240,7 +4249,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4267,10 +4276,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756191</v>
+        <v>111756227</v>
       </c>
       <c r="B32" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4283,38 +4292,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454859.4192073204</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R32" t="n">
-        <v>7078362.357776939</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4357,11 +4362,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756208</v>
+        <v>111756185</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454738.9854336191</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R33" t="n">
-        <v>7077858.933359061</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756195</v>
+        <v>111756230</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454751.5781831384</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R2" t="n">
-        <v>7078426.16528051</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756208</v>
+        <v>111756195</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +836,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454738.9854336191</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R3" t="n">
-        <v>7077858.933359061</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -922,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756190</v>
+        <v>111756227</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,38 +929,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454855.4410001434</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R4" t="n">
-        <v>7078362.414948186</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,11 +999,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756177</v>
+        <v>111756189</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,38 +1037,42 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454813.3235469044</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R5" t="n">
-        <v>7078139.154034943</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,6 +1115,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1146,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756183</v>
+        <v>111756200</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1199,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454846.1011266113</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R6" t="n">
-        <v>7077989.429598056</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1240,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756197</v>
+        <v>111756206</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1320,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454714.0498325597</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R7" t="n">
-        <v>7078245.674788637</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,7 +1361,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1397,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756187</v>
+        <v>111756203</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1441,10 +1432,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454822.2972313846</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R8" t="n">
-        <v>7078056.009293623</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1518,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756186</v>
+        <v>111756226</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1534,38 +1525,46 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454834.3282248892</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R9" t="n">
-        <v>7078062.459975488</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,11 +1607,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1639,10 +1633,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756229</v>
+        <v>111756185</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,34 +1649,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454666.5179796169</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R10" t="n">
-        <v>7078046.330693659</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,6 +1723,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,7 +1754,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756202</v>
+        <v>111756196</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1795,10 +1798,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454711.3900985403</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R11" t="n">
-        <v>7078122.517579651</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,10 +1875,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756201</v>
+        <v>111756228</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,38 +1891,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454721.3380567667</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R12" t="n">
-        <v>7078137.829085928</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1962,11 +1961,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1993,10 +1987,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756226</v>
+        <v>111756198</v>
       </c>
       <c r="B13" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2009,46 +2003,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454740.9983539577</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R13" t="n">
-        <v>7078152.117474856</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2091,6 +2077,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2117,7 +2108,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756182</v>
+        <v>111756186</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2161,10 +2152,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454754.976727221</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R14" t="n">
-        <v>7077925.384909356</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2211,7 +2202,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2238,7 +2229,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756189</v>
+        <v>111756207</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2282,10 +2273,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454863.8846402104</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R15" t="n">
-        <v>7078180.817308126</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2332,7 +2323,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2359,7 +2350,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756196</v>
+        <v>111756183</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2403,10 +2394,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454782.5072116339</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R16" t="n">
-        <v>7078363.463980651</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2453,7 +2444,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2480,7 +2471,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756206</v>
+        <v>111756194</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2524,10 +2515,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454681.0324187803</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R17" t="n">
-        <v>7078010.353051431</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2601,10 +2592,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756191</v>
+        <v>111756229</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2617,38 +2608,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454859.4192073204</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R18" t="n">
-        <v>7078362.357776939</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2691,11 +2678,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2722,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756188</v>
+        <v>111756177</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2734,46 +2716,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454822.976552347</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R19" t="n">
-        <v>7078103.248077305</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2842,7 +2816,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756200</v>
+        <v>111756192</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2886,10 +2860,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454728.385483562</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R20" t="n">
-        <v>7078135.961247524</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2963,7 +2937,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756193</v>
+        <v>111756191</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3007,10 +2981,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454850.1642388465</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R21" t="n">
-        <v>7078395.164246398</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3084,10 +3058,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756228</v>
+        <v>111756202</v>
       </c>
       <c r="B22" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3100,34 +3074,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454637.5582637019</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R22" t="n">
-        <v>7078061.762426405</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3170,6 +3148,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3196,7 +3179,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756207</v>
+        <v>111756201</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3240,10 +3223,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454689.3044494091</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R23" t="n">
-        <v>7078001.40201206</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3290,7 +3273,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3317,7 +3300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756192</v>
+        <v>111756190</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3361,10 +3344,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454878.1680680924</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R24" t="n">
-        <v>7078374.892904288</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3438,7 +3421,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756203</v>
+        <v>111756197</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3482,10 +3465,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454724.7693715093</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R25" t="n">
-        <v>7078099.804593277</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3532,7 +3515,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3559,10 +3542,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756230</v>
+        <v>111756199</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3575,34 +3558,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454689.8802392048</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R26" t="n">
-        <v>7078010.667017381</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3645,6 +3632,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3671,7 +3663,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756194</v>
+        <v>111756208</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3715,10 +3707,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454833.8349476284</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R27" t="n">
-        <v>7078397.165123029</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3792,7 +3784,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756199</v>
+        <v>111756184</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3836,10 +3828,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454714.5457055964</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R28" t="n">
-        <v>7078218.732823553</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3913,7 +3905,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756205</v>
+        <v>111756182</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3957,10 +3949,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454661.172505763</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R29" t="n">
-        <v>7078074.227291723</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4034,7 +4026,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756184</v>
+        <v>111756193</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4078,10 +4070,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454862.3754597838</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R30" t="n">
-        <v>7077983.455089819</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4128,7 +4120,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4155,7 +4147,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756198</v>
+        <v>111756188</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4191,7 +4183,11 @@
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4199,10 +4195,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454720.9697492528</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R31" t="n">
-        <v>7078234.97776112</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4245,11 +4241,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4276,10 +4267,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756227</v>
+        <v>111756205</v>
       </c>
       <c r="B32" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4292,34 +4283,38 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454748.496803251</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R32" t="n">
-        <v>7078427.092723752</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4362,6 +4357,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756185</v>
+        <v>111756187</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454848.6625738188</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R33" t="n">
-        <v>7078044.590774203</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756230</v>
+        <v>111756206</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454689.8802392048</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R2" t="n">
-        <v>7078010.667017381</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756195</v>
+        <v>111756186</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -836,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454751.5781831384</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R3" t="n">
-        <v>7078426.16528051</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -886,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756227</v>
+        <v>111756191</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,34 +938,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454748.496803251</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R4" t="n">
-        <v>7078427.092723752</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,6 +1012,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756189</v>
+        <v>111756203</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1069,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454863.8846402104</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R5" t="n">
-        <v>7078180.817308126</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1119,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756200</v>
+        <v>111756229</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,38 +1180,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454728.385483562</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R6" t="n">
-        <v>7078135.961247524</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,11 +1250,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756206</v>
+        <v>111756198</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1311,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454681.0324187803</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R7" t="n">
-        <v>7078010.353051431</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,7 +1370,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756203</v>
+        <v>111756195</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1432,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454724.7693715093</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R8" t="n">
-        <v>7078099.804593277</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1509,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756226</v>
+        <v>111756228</v>
       </c>
       <c r="B9" t="n">
-        <v>57196</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,46 +1534,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>206004</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454740.9983539577</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R9" t="n">
-        <v>7078152.117474856</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1633,7 +1630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756185</v>
+        <v>111756183</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1677,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454848.6625738188</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R10" t="n">
-        <v>7078044.590774203</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,7 +1724,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1754,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756196</v>
+        <v>111756230</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1770,38 +1767,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454782.5072116339</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R11" t="n">
-        <v>7078363.463980651</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1844,11 +1837,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1875,10 +1863,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756228</v>
+        <v>111756185</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1891,34 +1879,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454637.5582637019</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R12" t="n">
-        <v>7078061.762426405</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1961,6 +1953,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1987,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756198</v>
+        <v>111756227</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2003,38 +2000,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454720.9697492528</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R13" t="n">
-        <v>7078234.97776112</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2077,11 +2070,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2108,7 +2096,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756186</v>
+        <v>111756207</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2152,10 +2140,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454834.3282248892</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R14" t="n">
-        <v>7078062.459975488</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2202,7 +2190,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2229,7 +2217,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756207</v>
+        <v>111756205</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2273,10 +2261,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454689.3044494091</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R15" t="n">
-        <v>7078001.40201206</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2350,7 +2338,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756183</v>
+        <v>111756190</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2394,10 +2382,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454846.1011266113</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R16" t="n">
-        <v>7077989.429598056</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2444,7 +2432,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2471,10 +2459,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756194</v>
+        <v>111756226</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2487,38 +2475,46 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454833.8349476284</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R17" t="n">
-        <v>7078397.165123029</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2561,11 +2557,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2592,10 +2583,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756229</v>
+        <v>111756187</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2608,34 +2599,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454666.5179796169</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R18" t="n">
-        <v>7078046.330693659</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2678,6 +2673,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2704,10 +2704,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756177</v>
+        <v>111756184</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2716,38 +2716,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454813.3235469044</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R19" t="n">
-        <v>7078139.154034943</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2790,6 +2794,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2816,7 +2825,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756192</v>
+        <v>111756208</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2860,10 +2869,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454878.1680680924</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R20" t="n">
-        <v>7078374.892904288</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2937,7 +2946,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756191</v>
+        <v>111756201</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2981,10 +2990,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454859.4192073204</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R21" t="n">
-        <v>7078362.357776939</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3058,7 +3067,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756202</v>
+        <v>111756200</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3102,10 +3111,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454711.3900985403</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R22" t="n">
-        <v>7078122.517579651</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3179,10 +3188,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756201</v>
+        <v>111756177</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3191,42 +3200,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454721.3380567667</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R23" t="n">
-        <v>7078137.829085928</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3269,11 +3274,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3300,7 +3300,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756190</v>
+        <v>111756196</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454855.4410001434</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R24" t="n">
-        <v>7078362.414948186</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3421,7 +3421,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756197</v>
+        <v>111756189</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3465,10 +3465,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454714.0498325597</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R25" t="n">
-        <v>7078245.674788637</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3542,7 +3542,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756199</v>
+        <v>111756182</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454714.5457055964</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R26" t="n">
-        <v>7078218.732823553</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756208</v>
+        <v>111756199</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454738.9854336191</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R27" t="n">
-        <v>7077858.933359061</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756184</v>
+        <v>111756202</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3828,10 +3828,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454862.3754597838</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R28" t="n">
-        <v>7077983.455089819</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3905,7 +3905,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756182</v>
+        <v>111756197</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3949,10 +3949,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454754.976727221</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R29" t="n">
-        <v>7077925.384909356</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4147,7 +4147,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756188</v>
+        <v>111756192</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4183,11 +4183,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
@@ -4195,10 +4191,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454822.976552347</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R31" t="n">
-        <v>7078103.248077305</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4241,6 +4237,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4267,7 +4268,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756205</v>
+        <v>111756194</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4311,10 +4312,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454661.172505763</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R32" t="n">
-        <v>7078074.227291723</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4388,7 +4389,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756187</v>
+        <v>111756188</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4424,7 +4425,11 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4432,10 +4437,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454822.2972313846</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R33" t="n">
-        <v>7078056.009293623</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4478,11 +4483,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756206</v>
+        <v>111756194</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454681.0324187803</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R2" t="n">
-        <v>7078010.353051431</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756186</v>
+        <v>111756208</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454834.3282248892</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R3" t="n">
-        <v>7078062.459975488</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756191</v>
+        <v>111756207</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454859.4192073204</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R4" t="n">
-        <v>7078362.357776939</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756203</v>
+        <v>111756227</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,38 +1059,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454724.7693715093</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R5" t="n">
-        <v>7078099.804593277</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1133,11 +1129,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756229</v>
+        <v>111756193</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,34 +1171,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454666.5179796169</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R6" t="n">
-        <v>7078046.330693659</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,6 +1245,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756198</v>
+        <v>111756191</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1320,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454720.9697492528</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R7" t="n">
-        <v>7078234.97776112</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756195</v>
+        <v>111756199</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454751.5781831384</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R8" t="n">
-        <v>7078426.16528051</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756228</v>
+        <v>111756229</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454637.5582637019</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R9" t="n">
-        <v>7078061.762426405</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756183</v>
+        <v>111756184</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454846.1011266113</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R10" t="n">
-        <v>7077989.429598056</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,10 +1751,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756230</v>
+        <v>111756200</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1767,34 +1767,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454689.8802392048</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R11" t="n">
-        <v>7078010.667017381</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1837,6 +1841,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1863,7 +1872,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756185</v>
+        <v>111756195</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1907,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454848.6625738188</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R12" t="n">
-        <v>7078044.590774203</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1984,10 +1993,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756227</v>
+        <v>111756189</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,34 +2009,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454748.496803251</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R13" t="n">
-        <v>7078427.092723752</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2070,6 +2083,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,7 +2114,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756207</v>
+        <v>111756206</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2140,10 +2158,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454689.3044494091</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R14" t="n">
-        <v>7078001.40201206</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2217,7 +2235,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756205</v>
+        <v>111756196</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2261,10 +2279,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454661.172505763</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R15" t="n">
-        <v>7078074.227291723</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2338,7 +2356,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756190</v>
+        <v>111756203</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2382,10 +2400,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454855.4410001434</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R16" t="n">
-        <v>7078362.414948186</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,10 +2477,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756226</v>
+        <v>111756205</v>
       </c>
       <c r="B17" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2475,46 +2493,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454740.9983539577</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R17" t="n">
-        <v>7078152.117474856</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2557,6 +2567,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2583,7 +2598,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756187</v>
+        <v>111756190</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2627,10 +2642,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454822.2972313846</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R18" t="n">
-        <v>7078056.009293623</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2704,7 +2719,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756184</v>
+        <v>111756201</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2748,10 +2763,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454862.3754597838</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R19" t="n">
-        <v>7077983.455089819</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2798,7 +2813,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2825,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756208</v>
+        <v>111756177</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2837,42 +2852,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454738.9854336191</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R20" t="n">
-        <v>7077858.933359061</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2915,11 +2926,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2946,7 +2952,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756201</v>
+        <v>111756188</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2982,7 +2988,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2990,10 +3000,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454721.3380567667</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R21" t="n">
-        <v>7078137.829085928</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3036,11 +3046,6 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3067,10 +3072,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756200</v>
+        <v>111756226</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3083,38 +3088,46 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454728.385483562</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R22" t="n">
-        <v>7078135.961247524</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3157,11 +3170,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3188,10 +3196,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756177</v>
+        <v>111756230</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3200,25 +3208,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3228,10 +3236,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454813.3235469044</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R23" t="n">
-        <v>7078139.154034943</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3300,7 +3308,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756196</v>
+        <v>111756197</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3344,10 +3352,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454782.5072116339</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R24" t="n">
-        <v>7078363.463980651</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3394,7 +3402,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3421,7 +3429,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756189</v>
+        <v>111756202</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3465,10 +3473,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454863.8846402104</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R25" t="n">
-        <v>7078180.817308126</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3515,7 +3523,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3542,7 +3550,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756182</v>
+        <v>111756185</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3586,10 +3594,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454754.976727221</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R26" t="n">
-        <v>7077925.384909356</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3663,7 +3671,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756199</v>
+        <v>111756192</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3707,10 +3715,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454714.5457055964</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R27" t="n">
-        <v>7078218.732823553</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3784,7 +3792,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756202</v>
+        <v>111756182</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3828,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454711.3900985403</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R28" t="n">
-        <v>7078122.517579651</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3905,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756197</v>
+        <v>111756228</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3921,38 +3929,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454714.0498325597</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R29" t="n">
-        <v>7078245.674788637</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3995,11 +3999,6 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4026,7 +4025,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756193</v>
+        <v>111756183</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4070,10 +4069,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454850.1642388465</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R30" t="n">
-        <v>7078395.164246398</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4147,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756192</v>
+        <v>111756198</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4191,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454878.1680680924</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R31" t="n">
-        <v>7078374.892904288</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4241,7 +4240,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4268,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756194</v>
+        <v>111756187</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4312,10 +4311,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454833.8349476284</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R32" t="n">
-        <v>7078397.165123029</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4389,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756188</v>
+        <v>111756186</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4425,11 +4424,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4437,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454822.976552347</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R33" t="n">
-        <v>7078103.248077305</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4483,6 +4478,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756194</v>
+        <v>111756197</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454833.8349476284</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R2" t="n">
-        <v>7078397.165123029</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756208</v>
+        <v>111756193</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454738.9854336191</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R3" t="n">
-        <v>7077858.933359061</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756207</v>
+        <v>111756206</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454689.3044494091</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R4" t="n">
-        <v>7078001.40201206</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756227</v>
+        <v>111756208</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,34 +1059,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454748.496803251</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R5" t="n">
-        <v>7078427.092723752</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,6 +1133,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756193</v>
+        <v>111756201</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1199,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454850.1642388465</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R6" t="n">
-        <v>7078395.164246398</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1276,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756191</v>
+        <v>111756186</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1320,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454859.4192073204</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R7" t="n">
-        <v>7078362.357776939</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756199</v>
+        <v>111756183</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1441,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454714.5457055964</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R8" t="n">
-        <v>7078218.732823553</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,7 +1500,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756229</v>
+        <v>111756182</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1534,34 +1543,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454666.5179796169</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R9" t="n">
-        <v>7078046.330693659</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1604,6 +1617,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1630,7 +1648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756184</v>
+        <v>111756200</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1674,10 +1692,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454862.3754597838</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R10" t="n">
-        <v>7077983.455089819</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1751,7 +1769,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756200</v>
+        <v>111756189</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1795,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454728.385483562</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R11" t="n">
-        <v>7078135.961247524</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,7 +1863,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1872,7 +1890,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756195</v>
+        <v>111756185</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1916,10 +1934,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454751.5781831384</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R12" t="n">
-        <v>7078426.16528051</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1993,7 +2011,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756189</v>
+        <v>111756203</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2037,10 +2055,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454863.8846402104</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R13" t="n">
-        <v>7078180.817308126</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2087,7 +2105,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2114,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756206</v>
+        <v>111756229</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2130,38 +2148,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454681.0324187803</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R14" t="n">
-        <v>7078010.353051431</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2204,11 +2218,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2235,7 +2244,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756196</v>
+        <v>111756199</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2279,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454782.5072116339</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R15" t="n">
-        <v>7078363.463980651</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2356,7 +2365,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756203</v>
+        <v>111756198</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2400,10 +2409,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454724.7693715093</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R16" t="n">
-        <v>7078099.804593277</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2477,7 +2486,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756205</v>
+        <v>111756194</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2521,10 +2530,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454661.172505763</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R17" t="n">
-        <v>7078074.227291723</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2598,10 +2607,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756190</v>
+        <v>111756227</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2614,38 +2623,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454855.4410001434</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R18" t="n">
-        <v>7078362.414948186</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2688,11 +2693,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2719,10 +2719,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756201</v>
+        <v>111756228</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2735,38 +2735,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454721.3380567667</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R19" t="n">
-        <v>7078137.829085928</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2809,11 +2805,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2840,10 +2831,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756177</v>
+        <v>111756196</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2852,38 +2843,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454813.3235469044</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R20" t="n">
-        <v>7078139.154034943</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2926,6 +2921,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -3072,10 +3072,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756226</v>
+        <v>111756192</v>
       </c>
       <c r="B22" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3088,46 +3088,38 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454740.9983539577</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R22" t="n">
-        <v>7078152.117474856</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3170,6 +3162,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3196,10 +3193,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756230</v>
+        <v>111756226</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>57196</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3212,34 +3209,46 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>206004</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454689.8802392048</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R23" t="n">
-        <v>7078010.667017381</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3308,10 +3317,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756197</v>
+        <v>111756177</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3320,42 +3329,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454714.0498325597</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R24" t="n">
-        <v>7078245.674788637</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3398,11 +3403,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3429,7 +3429,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756202</v>
+        <v>111756207</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454711.3900985403</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R25" t="n">
-        <v>7078122.517579651</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3550,7 +3550,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756185</v>
+        <v>111756205</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454848.6625738188</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R26" t="n">
-        <v>7078044.590774203</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756192</v>
+        <v>111756190</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3715,10 +3715,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454878.1680680924</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R27" t="n">
-        <v>7078374.892904288</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756182</v>
+        <v>111756195</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3836,10 +3836,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454754.976727221</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R28" t="n">
-        <v>7077925.384909356</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3913,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756228</v>
+        <v>111756191</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3929,34 +3929,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454637.5582637019</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R29" t="n">
-        <v>7078061.762426405</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3999,6 +4003,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4025,10 +4034,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756183</v>
+        <v>111756230</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4041,38 +4050,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454846.1011266113</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R30" t="n">
-        <v>7077989.429598056</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4115,11 +4120,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4146,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756198</v>
+        <v>111756184</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454720.9697492528</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R31" t="n">
-        <v>7078234.97776112</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756186</v>
+        <v>111756202</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454834.3282248892</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R33" t="n">
-        <v>7078062.459975488</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756197</v>
+        <v>111756201</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454714.0498325597</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R2" t="n">
-        <v>7078245.674788637</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756193</v>
+        <v>111756177</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454850.1642388465</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R3" t="n">
-        <v>7078395.164246398</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756206</v>
+        <v>111756186</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -966,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454681.0324187803</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R4" t="n">
-        <v>7078010.353051431</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,7 +1007,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756208</v>
+        <v>111756203</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1087,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454738.9854336191</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R5" t="n">
-        <v>7077858.933359061</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1164,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756201</v>
+        <v>111756193</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1208,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454721.3380567667</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R6" t="n">
-        <v>7078137.829085928</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756186</v>
+        <v>111756195</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1329,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454834.3282248892</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R7" t="n">
-        <v>7078062.459975488</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1379,7 +1370,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1406,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756183</v>
+        <v>111756206</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1450,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454846.1011266113</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R8" t="n">
-        <v>7077989.429598056</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,7 +1491,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756182</v>
+        <v>111756227</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,38 +1534,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454754.976727221</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R9" t="n">
-        <v>7077925.384909356</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1617,11 +1604,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1648,7 +1630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756200</v>
+        <v>111756185</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1692,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454728.385483562</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R10" t="n">
-        <v>7078135.961247524</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1769,7 +1751,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756189</v>
+        <v>111756183</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1813,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454863.8846402104</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R11" t="n">
-        <v>7078180.817308126</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1890,7 +1872,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756185</v>
+        <v>111756198</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1934,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454848.6625738188</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R12" t="n">
-        <v>7078044.590774203</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1984,7 +1966,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2011,7 +1993,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756203</v>
+        <v>111756187</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2055,10 +2037,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454724.7693715093</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R13" t="n">
-        <v>7078099.804593277</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2132,10 +2114,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756229</v>
+        <v>111756189</v>
       </c>
       <c r="B14" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2148,34 +2130,38 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454666.5179796169</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R14" t="n">
-        <v>7078046.330693659</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2218,6 +2204,11 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2244,7 +2235,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756199</v>
+        <v>111756196</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2288,10 +2279,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454714.5457055964</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R15" t="n">
-        <v>7078218.732823553</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2365,7 +2356,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756198</v>
+        <v>111756188</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2401,7 +2392,11 @@
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2409,10 +2404,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454720.9697492528</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R16" t="n">
-        <v>7078234.97776112</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2455,11 +2450,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2486,7 +2476,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756194</v>
+        <v>111756200</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2530,10 +2520,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454833.8349476284</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R17" t="n">
-        <v>7078397.165123029</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2607,7 +2597,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756227</v>
+        <v>111756229</v>
       </c>
       <c r="B18" t="n">
         <v>89423</v>
@@ -2647,10 +2637,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454748.496803251</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R18" t="n">
-        <v>7078427.092723752</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2719,10 +2709,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756228</v>
+        <v>111756192</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2735,34 +2725,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454637.5582637019</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R19" t="n">
-        <v>7078061.762426405</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2805,6 +2799,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2831,7 +2830,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756196</v>
+        <v>111756184</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2875,10 +2874,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454782.5072116339</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R20" t="n">
-        <v>7078363.463980651</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2952,7 +2951,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756188</v>
+        <v>111756182</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2988,11 +2987,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3000,10 +2995,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454822.976552347</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R21" t="n">
-        <v>7078103.248077305</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3046,6 +3041,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3072,7 +3072,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756192</v>
+        <v>111756194</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3116,10 +3116,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454878.1680680924</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R22" t="n">
-        <v>7078374.892904288</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3193,10 +3193,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756226</v>
+        <v>111756197</v>
       </c>
       <c r="B23" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3209,46 +3209,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454740.9983539577</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R23" t="n">
-        <v>7078152.117474856</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3291,6 +3283,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3317,10 +3314,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756177</v>
+        <v>111756205</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3329,38 +3326,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454813.3235469044</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R24" t="n">
-        <v>7078139.154034943</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3403,6 +3404,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3429,10 +3435,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756207</v>
+        <v>111756230</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3445,38 +3451,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454689.3044494091</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R25" t="n">
-        <v>7078001.40201206</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3519,11 +3521,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3550,7 +3547,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756205</v>
+        <v>111756190</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3594,10 +3591,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454661.172505763</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R26" t="n">
-        <v>7078074.227291723</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3671,10 +3668,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756190</v>
+        <v>111756226</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3687,38 +3684,46 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454855.4410001434</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R27" t="n">
-        <v>7078362.414948186</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3761,11 +3766,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3792,10 +3792,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756195</v>
+        <v>111756228</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3808,38 +3808,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454751.5781831384</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R28" t="n">
-        <v>7078426.16528051</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3882,11 +3878,6 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3913,7 +3904,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756191</v>
+        <v>111756207</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3957,10 +3948,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454859.4192073204</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R29" t="n">
-        <v>7078362.357776939</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4007,7 +3998,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4034,10 +4025,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756230</v>
+        <v>111756208</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4050,34 +4041,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454689.8802392048</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R30" t="n">
-        <v>7078010.667017381</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4120,6 +4115,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4146,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756184</v>
+        <v>111756199</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454862.3754597838</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R31" t="n">
-        <v>7077983.455089819</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756187</v>
+        <v>111756202</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454822.2972313846</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R32" t="n">
-        <v>7078056.009293623</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756202</v>
+        <v>111756191</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454711.3900985403</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R33" t="n">
-        <v>7078122.517579651</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756201</v>
+        <v>111756195</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454721.3380567667</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R2" t="n">
-        <v>7078137.829085928</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756177</v>
+        <v>111756207</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,38 +813,42 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454813.3235469044</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R3" t="n">
-        <v>7078139.154034943</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,6 +891,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756186</v>
+        <v>111756188</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -949,7 +958,11 @@
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -957,10 +970,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454834.3282248892</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R4" t="n">
-        <v>7078062.459975488</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +1016,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,7 +1042,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756203</v>
+        <v>111756194</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,10 +1086,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454724.7693715093</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R5" t="n">
-        <v>7078099.804593277</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1155,7 +1163,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756193</v>
+        <v>111756190</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1199,10 +1207,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454850.1642388465</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R6" t="n">
-        <v>7078395.164246398</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1257,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1276,10 +1284,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756195</v>
+        <v>111756226</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1292,38 +1300,46 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454751.5781831384</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R7" t="n">
-        <v>7078426.16528051</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1366,11 +1382,6 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1397,10 +1408,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756206</v>
+        <v>111756230</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1413,38 +1424,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454681.0324187803</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R8" t="n">
-        <v>7078010.353051431</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1487,11 +1494,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,7 +1520,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756227</v>
+        <v>111756229</v>
       </c>
       <c r="B9" t="n">
         <v>89423</v>
@@ -1558,10 +1560,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454748.496803251</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R9" t="n">
-        <v>7078427.092723752</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1630,7 +1632,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756185</v>
+        <v>111756200</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1674,10 +1676,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454848.6625738188</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R10" t="n">
-        <v>7078044.590774203</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1751,7 +1753,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756183</v>
+        <v>111756189</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1795,10 +1797,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454846.1011266113</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R11" t="n">
-        <v>7077989.429598056</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1872,7 +1874,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756198</v>
+        <v>111756186</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1916,10 +1918,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454720.9697492528</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R12" t="n">
-        <v>7078234.97776112</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1993,7 +1995,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756187</v>
+        <v>111756199</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2037,10 +2039,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454822.2972313846</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R13" t="n">
-        <v>7078056.009293623</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2114,7 +2116,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756189</v>
+        <v>111756182</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2158,10 +2160,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454863.8846402104</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R14" t="n">
-        <v>7078180.817308126</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2208,7 +2210,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2235,7 +2237,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756196</v>
+        <v>111756183</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2279,10 +2281,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454782.5072116339</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R15" t="n">
-        <v>7078363.463980651</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2329,7 +2331,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2356,7 +2358,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756188</v>
+        <v>111756193</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2392,11 +2394,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2404,10 +2402,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454822.976552347</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R16" t="n">
-        <v>7078103.248077305</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2450,6 +2448,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2476,7 +2479,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756200</v>
+        <v>111756191</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2520,10 +2523,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454728.385483562</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R17" t="n">
-        <v>7078135.961247524</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2570,7 +2573,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2597,10 +2600,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756229</v>
+        <v>111756184</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2613,34 +2616,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454666.5179796169</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R18" t="n">
-        <v>7078046.330693659</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2683,6 +2690,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2709,7 +2721,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756192</v>
+        <v>111756185</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2753,10 +2765,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454878.1680680924</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R19" t="n">
-        <v>7078374.892904288</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2830,7 +2842,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756184</v>
+        <v>111756198</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2874,10 +2886,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454862.3754597838</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R20" t="n">
-        <v>7077983.455089819</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2924,7 +2936,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2951,7 +2963,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756182</v>
+        <v>111756196</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -2995,10 +3007,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454754.976727221</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R21" t="n">
-        <v>7077925.384909356</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3072,10 +3084,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756194</v>
+        <v>111756177</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3084,42 +3096,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454833.8349476284</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R22" t="n">
-        <v>7078397.165123029</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3162,11 +3170,6 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3193,7 +3196,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756197</v>
+        <v>111756203</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3237,10 +3240,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454714.0498325597</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R23" t="n">
-        <v>7078245.674788637</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3287,7 +3290,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3314,7 +3317,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756205</v>
+        <v>111756202</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3358,10 +3361,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454661.172505763</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R24" t="n">
-        <v>7078074.227291723</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3435,10 +3438,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756230</v>
+        <v>111756208</v>
       </c>
       <c r="B25" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3451,34 +3454,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454689.8802392048</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R25" t="n">
-        <v>7078010.667017381</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3521,6 +3528,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3547,10 +3559,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756190</v>
+        <v>111756228</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3563,38 +3575,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454855.4410001434</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R26" t="n">
-        <v>7078362.414948186</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3637,11 +3645,6 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3668,10 +3671,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756226</v>
+        <v>111756227</v>
       </c>
       <c r="B27" t="n">
-        <v>57196</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3684,46 +3687,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>206004</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454740.9983539577</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R27" t="n">
-        <v>7078152.117474856</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3792,10 +3783,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756228</v>
+        <v>111756201</v>
       </c>
       <c r="B28" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3808,34 +3799,38 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454637.5582637019</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R28" t="n">
-        <v>7078061.762426405</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,6 +3873,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3904,7 +3904,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756207</v>
+        <v>111756206</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454689.3044494091</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R29" t="n">
-        <v>7078001.40201206</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4025,7 +4025,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756208</v>
+        <v>111756187</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -4069,10 +4069,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454738.9854336191</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R30" t="n">
-        <v>7077858.933359061</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756199</v>
+        <v>111756192</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4190,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454714.5457055964</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R31" t="n">
-        <v>7078218.732823553</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756202</v>
+        <v>111756197</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4311,10 +4311,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454711.3900985403</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R32" t="n">
-        <v>7078122.517579651</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4388,7 +4388,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756191</v>
+        <v>111756205</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4432,10 +4432,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454859.4192073204</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R33" t="n">
-        <v>7078362.357776939</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756207</v>
+        <v>111756188</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -837,7 +837,11 @@
       <c r="I3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -845,10 +849,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454689.3044494091</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R3" t="n">
-        <v>7078001.40201206</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,11 +895,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,7 +921,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756188</v>
+        <v>111756207</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -958,11 +957,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -970,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454822.976552347</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R4" t="n">
-        <v>7078103.248077305</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,6 +1011,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756195</v>
+        <v>111756193</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454751.5781831384</v>
+        <v>454850.1642388465</v>
       </c>
       <c r="R2" t="n">
-        <v>7078426.16528051</v>
+        <v>7078395.164246398</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756188</v>
+        <v>111756229</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,42 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454822.976552347</v>
+        <v>454666.5179796169</v>
       </c>
       <c r="R3" t="n">
-        <v>7078103.248077305</v>
+        <v>7078046.330693659</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -921,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756207</v>
+        <v>111756206</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -965,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454689.3044494091</v>
+        <v>454681.0324187803</v>
       </c>
       <c r="R4" t="n">
-        <v>7078001.40201206</v>
+        <v>7078010.353051431</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1042,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756194</v>
+        <v>111756183</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1086,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454833.8349476284</v>
+        <v>454846.1011266113</v>
       </c>
       <c r="R5" t="n">
-        <v>7078397.165123029</v>
+        <v>7077989.429598056</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1128,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1163,10 +1155,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756190</v>
+        <v>111756228</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,38 +1171,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454855.4410001434</v>
+        <v>454637.5582637019</v>
       </c>
       <c r="R6" t="n">
-        <v>7078362.414948186</v>
+        <v>7078061.762426405</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1253,11 +1241,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1284,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756226</v>
+        <v>111756200</v>
       </c>
       <c r="B7" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,46 +1283,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454740.9983539577</v>
+        <v>454728.385483562</v>
       </c>
       <c r="R7" t="n">
-        <v>7078152.117474856</v>
+        <v>7078135.961247524</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,6 +1357,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1408,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756230</v>
+        <v>111756201</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1424,34 +1404,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454689.8802392048</v>
+        <v>454721.3380567667</v>
       </c>
       <c r="R8" t="n">
-        <v>7078010.667017381</v>
+        <v>7078137.829085928</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,6 +1478,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1520,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756229</v>
+        <v>111756185</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1536,34 +1525,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454666.5179796169</v>
+        <v>454848.6625738188</v>
       </c>
       <c r="R9" t="n">
-        <v>7078046.330693659</v>
+        <v>7078044.590774203</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1606,6 +1599,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1632,7 +1630,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756200</v>
+        <v>111756186</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1676,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454728.385483562</v>
+        <v>454834.3282248892</v>
       </c>
       <c r="R10" t="n">
-        <v>7078135.961247524</v>
+        <v>7078062.459975488</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1726,7 +1724,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1753,7 +1751,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756189</v>
+        <v>111756192</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1797,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454863.8846402104</v>
+        <v>454878.1680680924</v>
       </c>
       <c r="R11" t="n">
-        <v>7078180.817308126</v>
+        <v>7078374.892904288</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1847,7 +1845,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1874,10 +1872,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756186</v>
+        <v>111756226</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1890,38 +1888,46 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454834.3282248892</v>
+        <v>454740.9983539577</v>
       </c>
       <c r="R12" t="n">
-        <v>7078062.459975488</v>
+        <v>7078152.117474856</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1964,11 +1970,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1995,7 +1996,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756199</v>
+        <v>111756197</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2039,10 +2040,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454714.5457055964</v>
+        <v>454714.0498325597</v>
       </c>
       <c r="R13" t="n">
-        <v>7078218.732823553</v>
+        <v>7078245.674788637</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2089,7 +2090,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2116,7 +2117,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756182</v>
+        <v>111756196</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2160,10 +2161,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454754.976727221</v>
+        <v>454782.5072116339</v>
       </c>
       <c r="R14" t="n">
-        <v>7077925.384909356</v>
+        <v>7078363.463980651</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2237,7 +2238,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756183</v>
+        <v>111756208</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2281,10 +2282,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454846.1011266113</v>
+        <v>454738.9854336191</v>
       </c>
       <c r="R15" t="n">
-        <v>7077989.429598056</v>
+        <v>7077858.933359061</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2331,7 +2332,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2358,7 +2359,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756193</v>
+        <v>111756198</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2402,10 +2403,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454850.1642388465</v>
+        <v>454720.9697492528</v>
       </c>
       <c r="R16" t="n">
-        <v>7078395.164246398</v>
+        <v>7078234.97776112</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2479,10 +2480,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756191</v>
+        <v>111756227</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2495,38 +2496,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454859.4192073204</v>
+        <v>454748.496803251</v>
       </c>
       <c r="R17" t="n">
-        <v>7078362.357776939</v>
+        <v>7078427.092723752</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2569,11 +2566,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2600,7 +2592,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756184</v>
+        <v>111756207</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2644,10 +2636,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454862.3754597838</v>
+        <v>454689.3044494091</v>
       </c>
       <c r="R18" t="n">
-        <v>7077983.455089819</v>
+        <v>7078001.40201206</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2721,7 +2713,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756185</v>
+        <v>111756203</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2765,10 +2757,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454848.6625738188</v>
+        <v>454724.7693715093</v>
       </c>
       <c r="R19" t="n">
-        <v>7078044.590774203</v>
+        <v>7078099.804593277</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2842,10 +2834,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756198</v>
+        <v>111756177</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2854,42 +2846,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454720.9697492528</v>
+        <v>454813.3235469044</v>
       </c>
       <c r="R20" t="n">
-        <v>7078234.97776112</v>
+        <v>7078139.154034943</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2932,11 +2920,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2963,7 +2946,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756196</v>
+        <v>111756199</v>
       </c>
       <c r="B21" t="n">
         <v>56398</v>
@@ -3007,10 +2990,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454782.5072116339</v>
+        <v>454714.5457055964</v>
       </c>
       <c r="R21" t="n">
-        <v>7078363.463980651</v>
+        <v>7078218.732823553</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3084,10 +3067,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756177</v>
+        <v>111756194</v>
       </c>
       <c r="B22" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3096,38 +3079,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454813.3235469044</v>
+        <v>454833.8349476284</v>
       </c>
       <c r="R22" t="n">
-        <v>7078139.154034943</v>
+        <v>7078397.165123029</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3170,6 +3157,11 @@
       <c r="AB22" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3196,7 +3188,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756203</v>
+        <v>111756182</v>
       </c>
       <c r="B23" t="n">
         <v>56398</v>
@@ -3240,10 +3232,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454724.7693715093</v>
+        <v>454754.976727221</v>
       </c>
       <c r="R23" t="n">
-        <v>7078099.804593277</v>
+        <v>7077925.384909356</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3317,7 +3309,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756202</v>
+        <v>111756189</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3361,10 +3353,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454711.3900985403</v>
+        <v>454863.8846402104</v>
       </c>
       <c r="R24" t="n">
-        <v>7078122.517579651</v>
+        <v>7078180.817308126</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3411,7 +3403,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3438,7 +3430,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756208</v>
+        <v>111756205</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3482,10 +3474,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454738.9854336191</v>
+        <v>454661.172505763</v>
       </c>
       <c r="R25" t="n">
-        <v>7077858.933359061</v>
+        <v>7078074.227291723</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3559,10 +3551,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756228</v>
+        <v>111756202</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3575,34 +3567,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454637.5582637019</v>
+        <v>454711.3900985403</v>
       </c>
       <c r="R26" t="n">
-        <v>7078061.762426405</v>
+        <v>7078122.517579651</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3645,6 +3641,11 @@
       <c r="AB26" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3671,10 +3672,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756227</v>
+        <v>111756187</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3687,34 +3688,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454748.496803251</v>
+        <v>454822.2972313846</v>
       </c>
       <c r="R27" t="n">
-        <v>7078427.092723752</v>
+        <v>7078056.009293623</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3757,6 +3762,11 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3783,7 +3793,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756201</v>
+        <v>111756184</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3827,10 +3837,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454721.3380567667</v>
+        <v>454862.3754597838</v>
       </c>
       <c r="R28" t="n">
-        <v>7078137.829085928</v>
+        <v>7077983.455089819</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3877,7 +3887,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3904,7 +3914,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756206</v>
+        <v>111756195</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3948,10 +3958,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454681.0324187803</v>
+        <v>454751.5781831384</v>
       </c>
       <c r="R29" t="n">
-        <v>7078010.353051431</v>
+        <v>7078426.16528051</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4025,10 +4035,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756187</v>
+        <v>111756230</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4041,38 +4051,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454822.2972313846</v>
+        <v>454689.8802392048</v>
       </c>
       <c r="R30" t="n">
-        <v>7078056.009293623</v>
+        <v>7078010.667017381</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4115,11 +4121,6 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4146,7 +4147,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756192</v>
+        <v>111756191</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4190,10 +4191,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454878.1680680924</v>
+        <v>454859.4192073204</v>
       </c>
       <c r="R31" t="n">
-        <v>7078374.892904288</v>
+        <v>7078362.357776939</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4240,7 +4241,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4267,7 +4268,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756197</v>
+        <v>111756190</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4311,10 +4312,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454714.0498325597</v>
+        <v>454855.4410001434</v>
       </c>
       <c r="R32" t="n">
-        <v>7078245.674788637</v>
+        <v>7078362.414948186</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4361,7 +4362,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4388,7 +4389,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756205</v>
+        <v>111756188</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4424,7 +4425,11 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4432,10 +4437,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454661.172505763</v>
+        <v>454822.976552347</v>
       </c>
       <c r="R33" t="n">
-        <v>7078074.227291723</v>
+        <v>7078103.248077305</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4478,11 +4483,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756193</v>
+        <v>111756201</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454850.1642388465</v>
+        <v>454721</v>
       </c>
       <c r="R2" t="n">
-        <v>7078395.164246398</v>
+        <v>7078138</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -757,19 +757,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -801,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756229</v>
+        <v>111756206</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +807,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454666.5179796169</v>
+        <v>454681</v>
       </c>
       <c r="R3" t="n">
-        <v>7078046.330693659</v>
+        <v>7078010</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +868,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756206</v>
+        <v>111756195</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454681.0324187803</v>
+        <v>454752</v>
       </c>
       <c r="R4" t="n">
-        <v>7078010.353051431</v>
+        <v>7078426</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,19 +979,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1034,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756183</v>
+        <v>111756194</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454846.1011266113</v>
+        <v>454834</v>
       </c>
       <c r="R5" t="n">
-        <v>7077989.429598056</v>
+        <v>7078397</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,24 +1090,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,10 +1124,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756228</v>
+        <v>111756182</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,34 +1140,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454637.5582637019</v>
+        <v>454755</v>
       </c>
       <c r="R6" t="n">
-        <v>7078061.762426405</v>
+        <v>7077925</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1228,19 +1201,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,7 +1235,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756200</v>
+        <v>111756196</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1311,10 +1279,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454728.385483562</v>
+        <v>454783</v>
       </c>
       <c r="R7" t="n">
-        <v>7078135.961247524</v>
+        <v>7078363</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,19 +1312,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
@@ -1388,7 +1346,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756201</v>
+        <v>111756208</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1432,10 +1390,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454721.3380567667</v>
+        <v>454739</v>
       </c>
       <c r="R8" t="n">
-        <v>7078137.829085928</v>
+        <v>7077859</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,24 +1423,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1509,10 +1457,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756185</v>
+        <v>111756226</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,38 +1473,46 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454848.6625738188</v>
+        <v>454741</v>
       </c>
       <c r="R9" t="n">
-        <v>7078044.590774203</v>
+        <v>7078152</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1586,24 +1542,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1630,7 +1571,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756186</v>
+        <v>111756199</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1674,10 +1615,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454834.3282248892</v>
+        <v>454715</v>
       </c>
       <c r="R10" t="n">
-        <v>7078062.459975488</v>
+        <v>7078219</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1707,24 +1648,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1751,7 +1682,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756192</v>
+        <v>111756203</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1795,10 +1726,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454878.1680680924</v>
+        <v>454725</v>
       </c>
       <c r="R11" t="n">
-        <v>7078374.892904288</v>
+        <v>7078100</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1828,19 +1759,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
@@ -1872,10 +1793,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756226</v>
+        <v>111756202</v>
       </c>
       <c r="B12" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1888,46 +1809,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454740.9983539577</v>
+        <v>454711</v>
       </c>
       <c r="R12" t="n">
-        <v>7078152.117474856</v>
+        <v>7078123</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,19 +1870,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1996,7 +1904,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756197</v>
+        <v>111756188</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2032,7 +1940,11 @@
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2040,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454714.0498325597</v>
+        <v>454823</v>
       </c>
       <c r="R13" t="n">
-        <v>7078245.674788637</v>
+        <v>7078103</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2073,24 +1985,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2117,7 +2014,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756196</v>
+        <v>111756184</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2161,10 +2058,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454782.5072116339</v>
+        <v>454862</v>
       </c>
       <c r="R14" t="n">
-        <v>7078363.463980651</v>
+        <v>7077983</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,19 +2091,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
@@ -2238,7 +2125,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756208</v>
+        <v>111756187</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2282,10 +2169,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454738.9854336191</v>
+        <v>454822</v>
       </c>
       <c r="R15" t="n">
-        <v>7077858.933359061</v>
+        <v>7078056</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2315,19 +2202,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2359,7 +2236,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756198</v>
+        <v>111756191</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2403,10 +2280,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454720.9697492528</v>
+        <v>454859</v>
       </c>
       <c r="R16" t="n">
-        <v>7078234.97776112</v>
+        <v>7078362</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2436,19 +2313,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
@@ -2480,7 +2347,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756227</v>
+        <v>111756228</v>
       </c>
       <c r="B17" t="n">
         <v>89423</v>
@@ -2520,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454748.496803251</v>
+        <v>454638</v>
       </c>
       <c r="R17" t="n">
-        <v>7078427.092723752</v>
+        <v>7078062</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2553,19 +2420,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2592,7 +2449,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756207</v>
+        <v>111756183</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2636,10 +2493,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454689.3044494091</v>
+        <v>454846</v>
       </c>
       <c r="R18" t="n">
-        <v>7078001.40201206</v>
+        <v>7077989</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2669,24 +2526,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2713,7 +2560,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756203</v>
+        <v>111756205</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2757,10 +2604,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454724.7693715093</v>
+        <v>454661</v>
       </c>
       <c r="R19" t="n">
-        <v>7078099.804593277</v>
+        <v>7078074</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2790,19 +2637,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -2834,10 +2671,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756177</v>
+        <v>111756230</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2846,25 +2683,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2874,10 +2711,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454813.3235469044</v>
+        <v>454690</v>
       </c>
       <c r="R20" t="n">
-        <v>7078139.154034943</v>
+        <v>7078011</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2907,19 +2744,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2946,10 +2773,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756199</v>
+        <v>111756229</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2962,38 +2789,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454714.5457055964</v>
+        <v>454667</v>
       </c>
       <c r="R21" t="n">
-        <v>7078218.732823553</v>
+        <v>7078046</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3023,24 +2846,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3067,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756194</v>
+        <v>111756190</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -3111,10 +2919,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454833.8349476284</v>
+        <v>454855</v>
       </c>
       <c r="R22" t="n">
-        <v>7078397.165123029</v>
+        <v>7078362</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3144,19 +2952,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3188,10 +2986,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756182</v>
+        <v>111756227</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3204,38 +3002,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454754.976727221</v>
+        <v>454748</v>
       </c>
       <c r="R23" t="n">
-        <v>7077925.384909356</v>
+        <v>7078427</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3265,24 +3059,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3309,7 +3088,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756189</v>
+        <v>111756193</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3353,10 +3132,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454863.8846402104</v>
+        <v>454850</v>
       </c>
       <c r="R24" t="n">
-        <v>7078180.817308126</v>
+        <v>7078395</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3386,19 +3165,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -3430,7 +3199,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756205</v>
+        <v>111756200</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3474,10 +3243,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454661.172505763</v>
+        <v>454728</v>
       </c>
       <c r="R25" t="n">
-        <v>7078074.227291723</v>
+        <v>7078136</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3507,19 +3276,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
@@ -3551,7 +3310,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756202</v>
+        <v>111756186</v>
       </c>
       <c r="B26" t="n">
         <v>56398</v>
@@ -3595,10 +3354,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454711.3900985403</v>
+        <v>454834</v>
       </c>
       <c r="R26" t="n">
-        <v>7078122.517579651</v>
+        <v>7078062</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3628,24 +3387,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3672,7 +3421,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756187</v>
+        <v>111756197</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3716,10 +3465,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454822.2972313846</v>
+        <v>454714</v>
       </c>
       <c r="R27" t="n">
-        <v>7078056.009293623</v>
+        <v>7078246</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3749,24 +3498,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3793,7 +3532,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756184</v>
+        <v>111756207</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3837,10 +3576,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454862.3754597838</v>
+        <v>454689</v>
       </c>
       <c r="R28" t="n">
-        <v>7077983.455089819</v>
+        <v>7078001</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3870,19 +3609,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -3914,7 +3643,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756195</v>
+        <v>111756192</v>
       </c>
       <c r="B29" t="n">
         <v>56398</v>
@@ -3958,10 +3687,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454751.5781831384</v>
+        <v>454878</v>
       </c>
       <c r="R29" t="n">
-        <v>7078426.16528051</v>
+        <v>7078375</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3991,19 +3720,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
@@ -4035,10 +3754,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756230</v>
+        <v>111756189</v>
       </c>
       <c r="B30" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4051,34 +3770,38 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454689.8802392048</v>
+        <v>454864</v>
       </c>
       <c r="R30" t="n">
-        <v>7078010.667017381</v>
+        <v>7078181</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4108,19 +3831,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4147,7 +3865,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756191</v>
+        <v>111756198</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -4191,10 +3909,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454859.4192073204</v>
+        <v>454721</v>
       </c>
       <c r="R31" t="n">
-        <v>7078362.357776939</v>
+        <v>7078235</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4224,19 +3942,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -4268,7 +3976,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756190</v>
+        <v>111756185</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4312,10 +4020,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454855.4410001434</v>
+        <v>454849</v>
       </c>
       <c r="R32" t="n">
-        <v>7078362.414948186</v>
+        <v>7078045</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4345,19 +4053,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
@@ -4389,10 +4087,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756188</v>
+        <v>111756177</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4401,46 +4099,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454822.976552347</v>
+        <v>454813</v>
       </c>
       <c r="R33" t="n">
-        <v>7078103.248077305</v>
+        <v>7078139</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4470,19 +4160,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756201</v>
+        <v>111756227</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454721</v>
+        <v>454748</v>
       </c>
       <c r="R2" t="n">
-        <v>7078138</v>
+        <v>7078427</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +756,6 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -791,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756206</v>
+        <v>111756193</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -835,10 +826,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454681</v>
+        <v>454850</v>
       </c>
       <c r="R3" t="n">
-        <v>7078010</v>
+        <v>7078395</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -875,7 +866,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,7 +893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756195</v>
+        <v>111756190</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -946,10 +937,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454752</v>
+        <v>454855</v>
       </c>
       <c r="R4" t="n">
-        <v>7078426</v>
+        <v>7078362</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1004,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756194</v>
+        <v>111756196</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1057,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454834</v>
+        <v>454783</v>
       </c>
       <c r="R5" t="n">
-        <v>7078397</v>
+        <v>7078363</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,7 +1115,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756182</v>
+        <v>111756198</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1168,10 +1159,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454755</v>
+        <v>454721</v>
       </c>
       <c r="R6" t="n">
-        <v>7077925</v>
+        <v>7078235</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1208,7 +1199,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1235,7 +1226,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756196</v>
+        <v>111756194</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1279,10 +1270,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454783</v>
+        <v>454834</v>
       </c>
       <c r="R7" t="n">
-        <v>7078363</v>
+        <v>7078397</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1346,7 +1337,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756208</v>
+        <v>111756195</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1390,10 +1381,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454739</v>
+        <v>454752</v>
       </c>
       <c r="R8" t="n">
-        <v>7077859</v>
+        <v>7078426</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1457,10 +1448,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756226</v>
+        <v>111756199</v>
       </c>
       <c r="B9" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1473,46 +1464,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454741</v>
+        <v>454715</v>
       </c>
       <c r="R9" t="n">
-        <v>7078152</v>
+        <v>7078219</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1545,6 +1528,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1571,7 +1559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756199</v>
+        <v>111756189</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1615,10 +1603,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454715</v>
+        <v>454864</v>
       </c>
       <c r="R10" t="n">
-        <v>7078219</v>
+        <v>7078181</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1655,7 +1643,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1682,7 +1670,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756203</v>
+        <v>111756192</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1726,10 +1714,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454725</v>
+        <v>454878</v>
       </c>
       <c r="R11" t="n">
-        <v>7078100</v>
+        <v>7078375</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1793,10 +1781,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756202</v>
+        <v>111756226</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>57196</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1809,38 +1797,46 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>206004</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454711</v>
+        <v>454741</v>
       </c>
       <c r="R12" t="n">
-        <v>7078123</v>
+        <v>7078152</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1873,11 +1869,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1904,7 +1895,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756188</v>
+        <v>111756191</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1940,11 +1931,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -1952,10 +1939,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454823</v>
+        <v>454859</v>
       </c>
       <c r="R13" t="n">
-        <v>7078103</v>
+        <v>7078362</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1988,6 +1975,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2014,7 +2006,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756184</v>
+        <v>111756197</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2058,10 +2050,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454862</v>
+        <v>454714</v>
       </c>
       <c r="R14" t="n">
-        <v>7077983</v>
+        <v>7078246</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2098,7 +2090,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2125,7 +2117,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756187</v>
+        <v>111756203</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2169,10 +2161,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454822</v>
+        <v>454725</v>
       </c>
       <c r="R15" t="n">
-        <v>7078056</v>
+        <v>7078100</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2236,7 +2228,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756191</v>
+        <v>111756186</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2280,10 +2272,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454859</v>
+        <v>454834</v>
       </c>
       <c r="R16" t="n">
-        <v>7078362</v>
+        <v>7078062</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2347,10 +2339,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756228</v>
+        <v>111756205</v>
       </c>
       <c r="B17" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2363,34 +2355,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454638</v>
+        <v>454661</v>
       </c>
       <c r="R17" t="n">
-        <v>7078062</v>
+        <v>7078074</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2423,6 +2419,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2449,10 +2450,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756183</v>
+        <v>111756230</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2465,38 +2466,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454846</v>
+        <v>454690</v>
       </c>
       <c r="R18" t="n">
-        <v>7077989</v>
+        <v>7078011</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2529,11 +2526,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2560,7 +2552,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756205</v>
+        <v>111756206</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2604,10 +2596,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454661</v>
+        <v>454681</v>
       </c>
       <c r="R19" t="n">
-        <v>7078074</v>
+        <v>7078010</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2671,10 +2663,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756230</v>
+        <v>111756183</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2687,34 +2679,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454690</v>
+        <v>454846</v>
       </c>
       <c r="R20" t="n">
-        <v>7078011</v>
+        <v>7077989</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2747,6 +2743,11 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2773,10 +2774,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756229</v>
+        <v>111756184</v>
       </c>
       <c r="B21" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2789,34 +2790,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454667</v>
+        <v>454862</v>
       </c>
       <c r="R21" t="n">
-        <v>7078046</v>
+        <v>7077983</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2849,6 +2854,11 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2875,7 +2885,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756190</v>
+        <v>111756208</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -2919,10 +2929,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454855</v>
+        <v>454739</v>
       </c>
       <c r="R22" t="n">
-        <v>7078362</v>
+        <v>7077859</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2986,7 +2996,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756227</v>
+        <v>111756229</v>
       </c>
       <c r="B23" t="n">
         <v>89423</v>
@@ -3026,10 +3036,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454748</v>
+        <v>454667</v>
       </c>
       <c r="R23" t="n">
-        <v>7078427</v>
+        <v>7078046</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3088,7 +3098,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756193</v>
+        <v>111756187</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3132,10 +3142,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454850</v>
+        <v>454822</v>
       </c>
       <c r="R24" t="n">
-        <v>7078395</v>
+        <v>7078056</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3172,7 +3182,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3199,7 +3209,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756200</v>
+        <v>111756201</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3243,10 +3253,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454728</v>
+        <v>454721</v>
       </c>
       <c r="R25" t="n">
-        <v>7078136</v>
+        <v>7078138</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3283,7 +3293,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3310,10 +3320,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756186</v>
+        <v>111756228</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3326,35 +3336,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454834</v>
+        <v>454638</v>
       </c>
       <c r="R26" t="n">
         <v>7078062</v>
@@ -3390,11 +3396,6 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC26" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3421,7 +3422,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756197</v>
+        <v>111756200</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3465,10 +3466,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454714</v>
+        <v>454728</v>
       </c>
       <c r="R27" t="n">
-        <v>7078246</v>
+        <v>7078136</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3532,7 +3533,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756207</v>
+        <v>111756202</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3576,10 +3577,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454689</v>
+        <v>454711</v>
       </c>
       <c r="R28" t="n">
-        <v>7078001</v>
+        <v>7078123</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3643,10 +3644,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756192</v>
+        <v>111756177</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3655,42 +3656,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454878</v>
+        <v>454813</v>
       </c>
       <c r="R29" t="n">
-        <v>7078375</v>
+        <v>7078139</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3723,11 +3720,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3754,7 +3746,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756189</v>
+        <v>111756182</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -3798,10 +3790,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454864</v>
+        <v>454755</v>
       </c>
       <c r="R30" t="n">
-        <v>7078181</v>
+        <v>7077925</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3830,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3865,7 +3857,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756198</v>
+        <v>111756185</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -3909,10 +3901,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454721</v>
+        <v>454849</v>
       </c>
       <c r="R31" t="n">
-        <v>7078235</v>
+        <v>7078045</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3949,7 +3941,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3976,7 +3968,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756185</v>
+        <v>111756207</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4020,10 +4012,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454849</v>
+        <v>454689</v>
       </c>
       <c r="R32" t="n">
-        <v>7078045</v>
+        <v>7078001</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4087,10 +4079,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111756177</v>
+        <v>111756188</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4099,38 +4091,46 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>454813</v>
+        <v>454823</v>
       </c>
       <c r="R33" t="n">
-        <v>7078139</v>
+        <v>7078103</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>

--- a/artfynd/A 49140-2019.xlsx
+++ b/artfynd/A 49140-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756227</v>
+        <v>111756203</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454748</v>
+        <v>454725</v>
       </c>
       <c r="R2" t="n">
-        <v>7078427</v>
+        <v>7078100</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -756,6 +760,11 @@
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756193</v>
+        <v>111756186</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -826,10 +835,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454850</v>
+        <v>454834</v>
       </c>
       <c r="R3" t="n">
-        <v>7078395</v>
+        <v>7078062</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756190</v>
+        <v>111756205</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -937,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454855</v>
+        <v>454661</v>
       </c>
       <c r="R4" t="n">
-        <v>7078362</v>
+        <v>7078074</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1004,10 +1013,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756196</v>
+        <v>111756227</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1020,38 +1029,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454783</v>
+        <v>454748</v>
       </c>
       <c r="R5" t="n">
-        <v>7078363</v>
+        <v>7078427</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1084,11 +1089,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1115,7 +1115,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756198</v>
+        <v>111756193</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454721</v>
+        <v>454850</v>
       </c>
       <c r="R6" t="n">
-        <v>7078235</v>
+        <v>7078395</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1226,10 +1226,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756194</v>
+        <v>111756230</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1242,38 +1242,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454834</v>
+        <v>454690</v>
       </c>
       <c r="R7" t="n">
-        <v>7078397</v>
+        <v>7078011</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1306,11 +1302,6 @@
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1337,7 +1328,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756195</v>
+        <v>111756190</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1381,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454752</v>
+        <v>454855</v>
       </c>
       <c r="R8" t="n">
-        <v>7078426</v>
+        <v>7078362</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1448,7 +1439,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756199</v>
+        <v>111756206</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1492,10 +1483,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454715</v>
+        <v>454681</v>
       </c>
       <c r="R9" t="n">
-        <v>7078219</v>
+        <v>7078010</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1559,7 +1550,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756189</v>
+        <v>111756196</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1603,10 +1594,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454864</v>
+        <v>454783</v>
       </c>
       <c r="R10" t="n">
-        <v>7078181</v>
+        <v>7078363</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1643,7 +1634,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1670,7 +1661,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756192</v>
+        <v>111756198</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1714,10 +1705,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454878</v>
+        <v>454721</v>
       </c>
       <c r="R11" t="n">
-        <v>7078375</v>
+        <v>7078235</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1754,7 +1745,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1781,10 +1772,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756226</v>
+        <v>111756183</v>
       </c>
       <c r="B12" t="n">
-        <v>57196</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1797,46 +1788,38 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>206004</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogshare</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lepus timidus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454741</v>
+        <v>454846</v>
       </c>
       <c r="R12" t="n">
-        <v>7078152</v>
+        <v>7077989</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1869,6 +1852,11 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1895,7 +1883,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756191</v>
+        <v>111756184</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1939,10 +1927,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454859</v>
+        <v>454862</v>
       </c>
       <c r="R13" t="n">
-        <v>7078362</v>
+        <v>7077983</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1979,7 +1967,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2006,7 +1994,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756197</v>
+        <v>111756208</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2050,10 +2038,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454714</v>
+        <v>454739</v>
       </c>
       <c r="R14" t="n">
-        <v>7078246</v>
+        <v>7077859</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2090,7 +2078,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2117,7 +2105,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756203</v>
+        <v>111756194</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2161,10 +2149,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454725</v>
+        <v>454834</v>
       </c>
       <c r="R15" t="n">
-        <v>7078100</v>
+        <v>7078397</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2228,7 +2216,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756186</v>
+        <v>111756195</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2272,10 +2260,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454834</v>
+        <v>454752</v>
       </c>
       <c r="R16" t="n">
-        <v>7078062</v>
+        <v>7078426</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2312,7 +2300,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2339,7 +2327,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756205</v>
+        <v>111756199</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2383,10 +2371,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454661</v>
+        <v>454715</v>
       </c>
       <c r="R17" t="n">
-        <v>7078074</v>
+        <v>7078219</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2450,7 +2438,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756230</v>
+        <v>111756229</v>
       </c>
       <c r="B18" t="n">
         <v>89423</v>
@@ -2490,10 +2478,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454690</v>
+        <v>454667</v>
       </c>
       <c r="R18" t="n">
-        <v>7078011</v>
+        <v>7078046</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2552,7 +2540,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756206</v>
+        <v>111756187</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2596,10 +2584,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454681</v>
+        <v>454822</v>
       </c>
       <c r="R19" t="n">
-        <v>7078010</v>
+        <v>7078056</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2663,7 +2651,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756183</v>
+        <v>111756201</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2707,10 +2695,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454846</v>
+        <v>454721</v>
       </c>
       <c r="R20" t="n">
-        <v>7077989</v>
+        <v>7078138</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2774,10 +2762,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111756184</v>
+        <v>111756228</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2790,38 +2778,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>454862</v>
+        <v>454638</v>
       </c>
       <c r="R21" t="n">
-        <v>7077983</v>
+        <v>7078062</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2854,11 +2838,6 @@
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2885,7 +2864,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111756208</v>
+        <v>111756189</v>
       </c>
       <c r="B22" t="n">
         <v>56398</v>
@@ -2929,10 +2908,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>454739</v>
+        <v>454864</v>
       </c>
       <c r="R22" t="n">
-        <v>7077859</v>
+        <v>7078181</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2969,7 +2948,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2996,10 +2975,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111756229</v>
+        <v>111756200</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3012,34 +2991,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>454667</v>
+        <v>454728</v>
       </c>
       <c r="R23" t="n">
-        <v>7078046</v>
+        <v>7078136</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3072,6 +3055,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3098,7 +3086,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111756187</v>
+        <v>111756202</v>
       </c>
       <c r="B24" t="n">
         <v>56398</v>
@@ -3142,10 +3130,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>454822</v>
+        <v>454711</v>
       </c>
       <c r="R24" t="n">
-        <v>7078056</v>
+        <v>7078123</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3209,7 +3197,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111756201</v>
+        <v>111756192</v>
       </c>
       <c r="B25" t="n">
         <v>56398</v>
@@ -3253,10 +3241,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>454721</v>
+        <v>454878</v>
       </c>
       <c r="R25" t="n">
-        <v>7078138</v>
+        <v>7078375</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3293,7 +3281,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3320,10 +3308,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111756228</v>
+        <v>111756226</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>57196</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3336,34 +3324,46 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>206004</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skogshare</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lepus timidus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>454638</v>
+        <v>454741</v>
       </c>
       <c r="R26" t="n">
-        <v>7078062</v>
+        <v>7078152</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111756200</v>
+        <v>111756177</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3434,42 +3434,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>454728</v>
+        <v>454813</v>
       </c>
       <c r="R27" t="n">
-        <v>7078136</v>
+        <v>7078139</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3502,11 +3498,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3533,7 +3524,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111756202</v>
+        <v>111756182</v>
       </c>
       <c r="B28" t="n">
         <v>56398</v>
@@ -3577,10 +3568,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>454711</v>
+        <v>454755</v>
       </c>
       <c r="R28" t="n">
-        <v>7078123</v>
+        <v>7077925</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3644,10 +3635,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111756177</v>
+        <v>111756191</v>
       </c>
       <c r="B29" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3656,38 +3647,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>454813</v>
+        <v>454859</v>
       </c>
       <c r="R29" t="n">
-        <v>7078139</v>
+        <v>7078362</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3720,6 +3715,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3746,7 +3746,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111756182</v>
+        <v>111756185</v>
       </c>
       <c r="B30" t="n">
         <v>56398</v>
@@ -3790,10 +3790,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>454755</v>
+        <v>454849</v>
       </c>
       <c r="R30" t="n">
-        <v>7077925</v>
+        <v>7078045</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111756185</v>
+        <v>111756207</v>
       </c>
       <c r="B31" t="n">
         <v>56398</v>
@@ -3901,10 +3901,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>454849</v>
+        <v>454689</v>
       </c>
       <c r="R31" t="n">
-        <v>7078045</v>
+        <v>7078001</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111756207</v>
+        <v>111756197</v>
       </c>
       <c r="B32" t="n">
         <v>56398</v>
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>454689</v>
+        <v>454714</v>
       </c>
       <c r="R32" t="n">
-        <v>7078001</v>
+        <v>7078246</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
